--- a/docs/api-v2/Syntetiske_eiendommer_v2.xlsx
+++ b/docs/api-v2/Syntetiske_eiendommer_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m93645/skattemeldingen/docs/api-v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B503D54-6AAF-5F46-A774-E40CEA4D6095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164D0032-32C4-FF42-8F2F-F9B743334C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="-16000" windowWidth="25600" windowHeight="28300" xr2:uid="{905E2123-548B-FD4E-97D2-377CE1110A4E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19500" xr2:uid="{905E2123-548B-FD4E-97D2-377CE1110A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="81">
   <si>
     <t>sergId</t>
   </si>
@@ -125,9 +125,6 @@
     <t xml:space="preserve"> eidAvEiendom</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3003 SARPSBORG - 1133/3/35/0</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ingen eier</t>
   </si>
   <si>
@@ -234,13 +231,61 @@
   </si>
   <si>
     <t xml:space="preserve"> Formuestype</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> naeringseiendom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 116/146/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3105 SARPSBORG - 1133/3/35/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> flerboligbygning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4602 KINN - 309/55/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> del av flerbolig</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 208/537/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3103 MOSS - 2/1044/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 122/61/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 313527697</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13921249173</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19861548611</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 313957632</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 213795082</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 312510553</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -252,6 +297,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -277,11 +329,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25866D67-BABE-6C42-AFE7-28A2CCCA48DA}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -611,549 +664,703 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>14</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>15</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>15</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>16</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>17</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>18</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>19</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>20</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>21</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>22</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>23</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>24</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>24</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>25</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>26</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="C40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>26</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>27</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>28</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>29</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="B45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>30</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
         <v>31</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B48" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
         <v>32</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="B49" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>15</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>15</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>16</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>17</v>
-      </c>
-      <c r="B28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>26</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>26</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>27</v>
-      </c>
-      <c r="B34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>28</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>28</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>29</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>30</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>30</v>
-      </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>64</v>
+      <c r="B50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/docs/api-v2/Syntetiske_eiendommer_v2.xlsx
+++ b/docs/api-v2/Syntetiske_eiendommer_v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m93645/skattemeldingen/docs/api-v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164D0032-32C4-FF42-8F2F-F9B743334C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADA6300-EB6A-F94B-8FBC-A7B7A2D6E636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19500" xr2:uid="{905E2123-548B-FD4E-97D2-377CE1110A4E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="192">
   <si>
     <t>sergId</t>
   </si>
@@ -50,78 +50,21 @@
     <t xml:space="preserve"> selveidBolig</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4203 ARENDAL - 3/26/0/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 06891548603</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29811549183</t>
-  </si>
-  <si>
     <t xml:space="preserve"> selveidFritidseiendom</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4214 FROLAND - 75/32/0/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4616 TYSNES - 19/29/0/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14886897163</t>
-  </si>
-  <si>
     <t xml:space="preserve"> jordbrukseiendom</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4602 KINN - 351/2/0/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14928499821</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4214 FROLAND - 75/33/0/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11864399489</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22894497398</t>
-  </si>
-  <si>
     <t xml:space="preserve"> annenFastEiendomInnenforInntektsgivendeAktivitet</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4626 ØYGARDEN - 33/375/0/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 23818598890</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 17858297737</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 06815896732</t>
-  </si>
-  <si>
     <t xml:space="preserve"> annenFastEiendomUtenforInntektsgivendeAktivitet</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1114 BJERKREIM - 33/72/0/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 07926396743</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 03816297027</t>
-  </si>
-  <si>
     <t xml:space="preserve"> tomt</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0301 OSLO - 134/47/0/0</t>
-  </si>
-  <si>
     <t xml:space="preserve"> eidAvEiendom</t>
   </si>
   <si>
@@ -131,154 +74,544 @@
     <t xml:space="preserve"> tilleggseiendom</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3411 RINGSAKER - 151/4/0/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 05833847092</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20813848539</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3411 RINGSAKER - 697/2/0/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01921548717</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16871348239</t>
-  </si>
-  <si>
     <t xml:space="preserve"> boligselskap</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5054 INDRE FOSEN - 121/24/0/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 313453227</t>
-  </si>
-  <si>
     <t xml:space="preserve"> boenhetIBoligselskap</t>
   </si>
   <si>
-    <t xml:space="preserve"> 28910649266</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 03870949102</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19899398850</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 27909399160</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22900399050</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01836397998</t>
-  </si>
-  <si>
     <t xml:space="preserve"> splittet</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3418 ÅSNES - 78/22/0/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14844699469</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16835099974</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 04837699997</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 27906899847</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 27916798941</t>
-  </si>
-  <si>
     <t xml:space="preserve"> seksjonert</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4203 ARENDAL - 503/486/0/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4203 ARENDAL - 503/486/0/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 06823949144</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 07814099258</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4203 ARENDAL - 503/486/0/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 09928394848</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4203 ARENDAL - 503/486/0/3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12864898538</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 25855099058</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Formuestype</t>
   </si>
   <si>
     <t xml:space="preserve"> naeringseiendom</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0301 OSLO - 116/146/0/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3105 SARPSBORG - 1133/3/35/0</t>
-  </si>
-  <si>
     <t xml:space="preserve"> flerboligbygning</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4602 KINN - 309/55/0/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> del av flerbolig</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0301 OSLO - 208/537/0/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3103 MOSS - 2/1044/0/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0301 OSLO - 122/61/0/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 313527697</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13921249173</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19861548611</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 313957632</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 213795082</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 312510553</t>
+    <t xml:space="preserve"> 4203 ARENDAL - 61/39/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3205 LILLESTRØM - 31/266/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4214 FROLAND - 64/23/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4213 TVEDESTRAND - 59/1/49/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3101 HALDEN - 25/13/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3431 DOVRE - 9/85/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4649 STAD - 43/1/83/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 5/14/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 10/700/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 10/106/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 111/3/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 10/1036/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 10/135/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 72/364/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 198/176/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 10/116/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 10/710/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 10/712/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 3/71/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 1/26/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 3/91/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 1/2/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 1/11/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 13/13/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 19/4/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2100 SVALBARD - 22/688/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1804 BODØ - 42/487/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1525 STRANDA - 45/26/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3101 HALDEN - 15/14/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3101 HALDEN - 20/15/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5001 TRONDHEIM - 300/14/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2100 SVALBARD - 22/1/4/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 11/298/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5007 NAMSOS - 65/1846/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3107 FREDRIKSTAD - 120/53/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2100 SVALBARD - 22/251/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3101 HALDEN - 100/8/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3103 MOSS - 3/2524/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2100 SVALBARD - 22/159/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fastEiendomPaaSvalbard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2100 SVALBARD - 22/124/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> null</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2100 SVALBARD - 12/1/2/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2100 SVALBARD - 12/1/4/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3101 HALDEN - 80/5/1/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3101 HALDEN - 15/11/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2100 SVALBARD - 1/11/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> skogeiendom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3101 HALDEN - 44/2/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3101 HALDEN - 250/15/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 97/5/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3101 HALDEN - 44/1/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3101 HALDEN - 45/1/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3101 HALDEN - 60/1/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5001 TRONDHEIM - 25/1/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3101 HALDEN - 50/1/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3101 HALDEN - 50/13/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3101 HALDEN - 50/16/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 213/146/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 312434865/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 312434865/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 312434865/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 312434865/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 312434865/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 312434865/6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 312434865/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 312434865/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 312434865/9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 158/323/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 313771539/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 313771539/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 313771539/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 313771539/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 313771539/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 313771539/6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 313771539/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 158/200/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 310976830/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 310976830/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 310976830/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 310976830/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 310976830/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3107 FREDRIKSTAD - 729/107/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3405 LILLEHAMMER - 53/27/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3405 LILLEHAMMER - 53/144/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5605 SØR-VARANGER - 25/221/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5628 TANA - 18/346/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4012 BAMBLE - 25/638/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5053 INDERØY - 83/7/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3105 SARPSBORG - 1/436/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4012 BAMBLE - 15/31/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4012 BAMBLE - 15/63/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 154/227/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 154/227/0/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 154/227/0/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 154/227/0/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 16/15/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 16/15/0/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 16/15/0/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 16/15/0/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 27/2/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 27/2/0/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 27/2/0/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 57/11/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 57/11/0/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 57/11/0/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 54/99/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 54/99/0/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 54/99/0/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2100 SVALBARD - 22/243/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2100 SVALBARD - 22/243/0/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2100 SVALBARD - 22/243/0/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 158/384/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 312990806/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 312990806/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 312990806/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 312990806/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 158/383/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 312897849/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 312897849/6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 160/520/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 313083829/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 313083829/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 313083829/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1505 KRISTIANSUND - 107/14/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1505 KRISTIANSUND - 313122298/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1505 KRISTIANSUND - 313122298/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1505 KRISTIANSUND - 313122298/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1505 KRISTIANSUND - 313122298/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1505 KRISTIANSUND - 313122298/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1505 KRISTIANSUND - 313122298/6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1505 KRISTIANSUND - 313122298/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1505 KRISTIANSUND - 313122298/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3101 HALDEN - 29/3/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3101 HALDEN - 30/4/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3101 HALDEN - 40/2/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3101 HALDEN - 29/13/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 10/118/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 115/24/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> skalIkkeFastsettes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5001 TRONDHEIM - 250/13/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1103 STAVANGER - 1/110/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4204 KRISTIANSAND - 117/118/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1103 STAVANGER - 1/97/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3101 HALDEN - 70/14/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 158/132/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 158/335/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3107 FREDRIKSTAD - 300/794/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 167/1556/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 208/495/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 190/365/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 208/567/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 2/268/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 109/178/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 109/178/0/0(U1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 109/178/0/0(U2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 111/32/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 111/32/0/0(U1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4601 BERGEN - 111/32/0/0(U2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3101 HALDEN - 20/1/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3101 HALDEN - 20/1/0/0(U1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3101 HALDEN - 20/1/0/0(U2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3101 HALDEN - 20/1/0/0(U3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 123/658/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 123/658/0/0(U1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 123/658/0/0(U2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 10/10/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 10/10/0/0(U1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 10/10/0/0(U2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0301 OSLO - 10/10/0/0(U3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3101 HALDEN - 250/1/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3101 HALDEN - 250/1/0/0(U1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3101 HALDEN - 250/1/0/0(U2)</t>
   </si>
 </sst>
 </file>
@@ -353,9 +686,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -393,7 +726,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -499,7 +832,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -641,7 +974,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -649,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25866D67-BABE-6C42-AFE7-28A2CCCA48DA}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D50"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -668,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -685,10 +1018,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="D2" s="4">
+        <v>19855897736</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -699,10 +1032,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D3" s="4">
+        <v>21865898093</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -710,27 +1043,27 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5924598338</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="D5" s="4">
+        <v>21865898093</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -741,10 +1074,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="D6" s="4">
+        <v>56908400920</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -752,27 +1085,27 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="D7" s="4">
+        <v>27886796922</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7887095684</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -780,27 +1113,27 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="D9" s="4">
+        <v>17860349477</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="D10" s="4">
+        <v>19900449707</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -808,13 +1141,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="D11" s="4">
+        <v>23888197559</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -822,545 +1155,3401 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="D12" s="4">
+        <v>21918397288</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="4" t="s">
         <v>24</v>
+      </c>
+      <c r="D13" s="4">
+        <v>7857896798</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="D14" s="4">
+        <v>24818097456</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D15" s="4">
+        <v>19817397223</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="D16" s="4">
+        <v>6857398341</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>75</v>
+        <v>24</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2857699737</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="D18" s="4">
+        <v>30839099238</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="D19" s="4">
+        <v>7928997841</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="D20" s="4">
+        <v>49910775153</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="D21" s="4">
+        <v>15814798140</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="D22" s="4">
+        <v>19854799617</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="D23" s="4">
+        <v>15814798140</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
+      </c>
+      <c r="D24" s="4">
+        <v>19854799617</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="D25" s="4">
+        <v>30819299028</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>43</v>
+        <v>28</v>
+      </c>
+      <c r="D26" s="4">
+        <v>12919399951</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
+      </c>
+      <c r="D27" s="4">
+        <v>311180959</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="D28" s="4">
+        <v>21879899475</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>46</v>
+        <v>31</v>
+      </c>
+      <c r="D29" s="4">
+        <v>14817799141</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>76</v>
+        <v>32</v>
+      </c>
+      <c r="D30" s="4">
+        <v>311688480</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>77</v>
+        <v>33</v>
+      </c>
+      <c r="D31" s="4">
+        <v>10825297052</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2835597779</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="D33" s="4">
+        <v>27815096180</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="D34" s="4">
+        <v>5904697666</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="D35" s="4">
+        <v>25838396987</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="D36" s="4">
+        <v>4868496806</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
+      </c>
+      <c r="D37" s="4">
+        <v>25838396987</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="D38" s="4">
+        <v>4868496806</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="D39" s="4">
+        <v>27815096180</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>52</v>
+        <v>37</v>
+      </c>
+      <c r="D40" s="4">
+        <v>5904697666</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>53</v>
+        <v>38</v>
+      </c>
+      <c r="D41" s="4">
+        <v>15929599567</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="D42" s="4">
+        <v>15929599567</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>58</v>
+        <v>40</v>
+      </c>
+      <c r="D43" s="4">
+        <v>19921249511</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>57</v>
+        <v>40</v>
+      </c>
+      <c r="D44" s="4">
+        <v>5871348814</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="D45" s="4">
+        <v>15929599567</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>63</v>
+        <v>42</v>
+      </c>
+      <c r="D46" s="4">
+        <v>19921249511</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>62</v>
+        <v>42</v>
+      </c>
+      <c r="D47" s="4">
+        <v>5871348814</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
+        <v>25</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="4">
+        <v>25838396987</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49">
+        <v>4868496806</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>26</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50">
+        <v>29881498837</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>27</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51">
+        <v>9913349366</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>27</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52">
+        <v>23913149270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>28</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53">
+        <v>21841549918</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>28</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54">
+        <v>7831449475</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>29</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55">
+        <v>2851698208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>30</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56">
+        <v>8821899401</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>31</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57">
+        <v>3860548436</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>31</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58">
+        <v>22910349531</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>32</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59">
+        <v>1871449844</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>33</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60">
+        <v>314002903</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>34</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61">
+        <v>26846399916</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>34</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62">
+        <v>11868198070</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>34</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63">
+        <v>43869700259</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>34</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64">
+        <v>8838096051</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>34</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65">
+        <v>29917797720</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>34</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66">
+        <v>1929299325</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>34</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67">
+        <v>29849398286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>34</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68">
+        <v>5924698510</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>34</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>52</v>
+      </c>
+      <c r="D69">
+        <v>13898899858</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>34</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70">
+        <v>26869099766</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>35</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71">
+        <v>22847397482</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>35</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72">
+        <v>20907498116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>35</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73">
+        <v>11867797345</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>35</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74">
+        <v>5857898488</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>36</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>54</v>
+      </c>
+      <c r="D75">
+        <v>29817399981</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>36</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>54</v>
+      </c>
+      <c r="D76">
+        <v>27817199467</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>37</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
+        <v>55</v>
+      </c>
+      <c r="D77">
+        <v>310459402</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>38</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78">
+        <v>7891498130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>39</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>57</v>
+      </c>
+      <c r="D79">
+        <v>18891599540</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>40</v>
+      </c>
+      <c r="B80" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" t="s">
+        <v>59</v>
+      </c>
+      <c r="D80" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>41</v>
+      </c>
+      <c r="B81" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81">
+        <v>14901899747</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>42</v>
+      </c>
+      <c r="B82" t="s">
+        <v>58</v>
+      </c>
+      <c r="C82" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82">
+        <v>28892098257</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>43</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83">
+        <v>21825399175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>44</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>64</v>
+      </c>
+      <c r="D84">
+        <v>15880399079</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>45</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D85">
+        <v>9852248111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>46</v>
+      </c>
+      <c r="B86" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" t="s">
+        <v>67</v>
+      </c>
+      <c r="D86">
+        <v>15816197055</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>46</v>
+      </c>
+      <c r="B87" t="s">
+        <v>66</v>
+      </c>
+      <c r="C87" t="s">
+        <v>67</v>
+      </c>
+      <c r="D87">
+        <v>8896395557</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>47</v>
+      </c>
+      <c r="B88" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88">
+        <v>8843049568</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>47</v>
+      </c>
+      <c r="B89" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89">
+        <v>8813049083</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>48</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>69</v>
+      </c>
+      <c r="D90">
+        <v>313191796</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>49</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>70</v>
+      </c>
+      <c r="D91">
+        <v>10913149373</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>49</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>70</v>
+      </c>
+      <c r="D92">
+        <v>20893448838</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>50</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>71</v>
+      </c>
+      <c r="D93">
+        <v>24917797311</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>51</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D94">
+        <v>9861348870</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>51</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>72</v>
+      </c>
+      <c r="D95">
+        <v>4821148974</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>52</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>73</v>
+      </c>
+      <c r="D96">
+        <v>2915197925</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>53</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>74</v>
+      </c>
+      <c r="D97">
+        <v>9861348870</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>53</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>74</v>
+      </c>
+      <c r="D98">
+        <v>4821148974</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>54</v>
+      </c>
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" t="s">
+        <v>75</v>
+      </c>
+      <c r="D99">
+        <v>9861348870</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>54</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
+        <v>75</v>
+      </c>
+      <c r="D100">
+        <v>4821148974</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>55</v>
+      </c>
+      <c r="B101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" t="s">
+        <v>76</v>
+      </c>
+      <c r="D101">
+        <v>9861348870</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>55</v>
+      </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" t="s">
+        <v>76</v>
+      </c>
+      <c r="D102">
+        <v>4821148974</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>56</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>77</v>
+      </c>
+      <c r="D103">
+        <v>312434865</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>57</v>
+      </c>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
-        <v>32</v>
-      </c>
-      <c r="B49" s="3" t="s">
+      <c r="D104">
+        <v>6814297754</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>58</v>
+      </c>
+      <c r="B105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" t="s">
+        <v>79</v>
+      </c>
+      <c r="D105">
+        <v>8874898148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>59</v>
+      </c>
+      <c r="B106" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" t="s">
+        <v>80</v>
+      </c>
+      <c r="D106">
+        <v>55828900756</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>60</v>
+      </c>
+      <c r="B107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" t="s">
+        <v>81</v>
+      </c>
+      <c r="D107">
+        <v>19865999243</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>60</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>81</v>
+      </c>
+      <c r="D108">
+        <v>19865898781</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>61</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>82</v>
+      </c>
+      <c r="D109">
+        <v>19865999243</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>61</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>82</v>
+      </c>
+      <c r="D110">
+        <v>19865898781</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>62</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
+        <v>83</v>
+      </c>
+      <c r="D111">
+        <v>22929099617</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>62</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" t="s">
+        <v>83</v>
+      </c>
+      <c r="D112">
+        <v>10918898994</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>63</v>
+      </c>
+      <c r="B113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" t="s">
+        <v>84</v>
+      </c>
+      <c r="D113">
+        <v>16826696870</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>63</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" t="s">
+        <v>84</v>
+      </c>
+      <c r="D114">
+        <v>18906796585</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>64</v>
+      </c>
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" t="s">
+        <v>85</v>
+      </c>
+      <c r="D115">
+        <v>15859798494</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
         <v>65</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" t="s">
+        <v>86</v>
+      </c>
+      <c r="D116">
+        <v>13886295531</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>65</v>
+      </c>
+      <c r="B117" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" t="s">
+        <v>86</v>
+      </c>
+      <c r="D117">
+        <v>21906198093</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>66</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" t="s">
+        <v>87</v>
+      </c>
+      <c r="D118">
+        <v>313771539</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>67</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>88</v>
+      </c>
+      <c r="D119">
+        <v>26829699116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>68</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" t="s">
+        <v>89</v>
+      </c>
+      <c r="D120">
+        <v>19861597841</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>69</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>90</v>
+      </c>
+      <c r="D121">
+        <v>56814300191</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>70</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>91</v>
+      </c>
+      <c r="D122">
+        <v>14819999482</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>71</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>92</v>
+      </c>
+      <c r="D123">
+        <v>5841149515</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>71</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>92</v>
+      </c>
+      <c r="D124">
+        <v>20821448841</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>72</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>93</v>
+      </c>
+      <c r="D125">
+        <v>5841149515</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>72</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>93</v>
+      </c>
+      <c r="D126">
+        <v>20821448841</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
         <v>73</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>94</v>
+      </c>
+      <c r="D127">
+        <v>14854299647</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>73</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>94</v>
+      </c>
+      <c r="D128">
+        <v>30904298170</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>74</v>
+      </c>
+      <c r="B129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" t="s">
+        <v>95</v>
+      </c>
+      <c r="D129">
+        <v>310976830</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>75</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>96</v>
+      </c>
+      <c r="D130">
+        <v>25842098028</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>76</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>97</v>
+      </c>
+      <c r="D131">
+        <v>29878697063</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>77</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>98</v>
+      </c>
+      <c r="D132">
+        <v>7879398236</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>77</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>98</v>
+      </c>
+      <c r="D133">
+        <v>24919298177</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>78</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" t="s">
+        <v>99</v>
+      </c>
+      <c r="D134">
+        <v>7879398236</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>78</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>99</v>
+      </c>
+      <c r="D135">
+        <v>24919298177</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136">
         <v>79</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
-        <v>33</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D50" s="4" t="s">
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" t="s">
+        <v>100</v>
+      </c>
+      <c r="D136">
+        <v>2869299890</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>79</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" t="s">
+        <v>100</v>
+      </c>
+      <c r="D137">
+        <v>5929599596</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138">
         <v>80</v>
+      </c>
+      <c r="B138" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" t="s">
+        <v>101</v>
+      </c>
+      <c r="D138">
+        <v>310049573</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>81</v>
+      </c>
+      <c r="B139" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" t="s">
+        <v>102</v>
+      </c>
+      <c r="D139">
+        <v>312974436</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>82</v>
+      </c>
+      <c r="B140" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" t="s">
+        <v>103</v>
+      </c>
+      <c r="D140">
+        <v>312169053</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>83</v>
+      </c>
+      <c r="B141" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141" t="s">
+        <v>104</v>
+      </c>
+      <c r="D141">
+        <v>312915103</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>84</v>
+      </c>
+      <c r="B142" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" t="s">
+        <v>105</v>
+      </c>
+      <c r="D142">
+        <v>21911397452</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>85</v>
+      </c>
+      <c r="B143" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" t="s">
+        <v>106</v>
+      </c>
+      <c r="D143">
+        <v>66838700633</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>85</v>
+      </c>
+      <c r="B144" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" t="s">
+        <v>106</v>
+      </c>
+      <c r="D144">
+        <v>16917398562</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>85</v>
+      </c>
+      <c r="B145" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" t="s">
+        <v>106</v>
+      </c>
+      <c r="D145">
+        <v>17867597751</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>85</v>
+      </c>
+      <c r="B146" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" t="s">
+        <v>106</v>
+      </c>
+      <c r="D146">
+        <v>1887599676</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>85</v>
+      </c>
+      <c r="B147" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" t="s">
+        <v>106</v>
+      </c>
+      <c r="D147">
+        <v>2887498396</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>85</v>
+      </c>
+      <c r="B148" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148" t="s">
+        <v>106</v>
+      </c>
+      <c r="D148">
+        <v>19828399767</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>85</v>
+      </c>
+      <c r="B149" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" t="s">
+        <v>106</v>
+      </c>
+      <c r="D149">
+        <v>46888503161</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>85</v>
+      </c>
+      <c r="B150" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" t="s">
+        <v>106</v>
+      </c>
+      <c r="D150">
+        <v>55849000291</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>86</v>
+      </c>
+      <c r="B151" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" t="s">
+        <v>107</v>
+      </c>
+      <c r="D151">
+        <v>7873549402</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>86</v>
+      </c>
+      <c r="B152" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" t="s">
+        <v>107</v>
+      </c>
+      <c r="D152">
+        <v>11913349344</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>87</v>
+      </c>
+      <c r="B153" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" t="s">
+        <v>108</v>
+      </c>
+      <c r="D153">
+        <v>27844894754</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>88</v>
+      </c>
+      <c r="B154" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154" t="s">
+        <v>109</v>
+      </c>
+      <c r="D154">
+        <v>7873549402</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>88</v>
+      </c>
+      <c r="B155" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" t="s">
+        <v>109</v>
+      </c>
+      <c r="D155">
+        <v>11913349344</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>89</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>110</v>
+      </c>
+      <c r="D156">
+        <v>7873549402</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>89</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>110</v>
+      </c>
+      <c r="D157">
+        <v>11913349344</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>90</v>
+      </c>
+      <c r="B158" t="s">
+        <v>15</v>
+      </c>
+      <c r="C158" t="s">
+        <v>111</v>
+      </c>
+      <c r="D158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>91</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
+        <v>112</v>
+      </c>
+      <c r="D159">
+        <v>30870199275</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>92</v>
+      </c>
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" t="s">
+        <v>113</v>
+      </c>
+      <c r="D160">
+        <v>26910599029</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>93</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" t="s">
+        <v>114</v>
+      </c>
+      <c r="D161">
+        <v>5851299701</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>94</v>
+      </c>
+      <c r="B162" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162" t="s">
+        <v>115</v>
+      </c>
+      <c r="D162" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>95</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" t="s">
+        <v>116</v>
+      </c>
+      <c r="D163">
+        <v>11895798152</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>96</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" t="s">
+        <v>117</v>
+      </c>
+      <c r="D164">
+        <v>26924799225</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>97</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" t="s">
+        <v>118</v>
+      </c>
+      <c r="D165">
+        <v>312805243</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>98</v>
+      </c>
+      <c r="B166" t="s">
+        <v>15</v>
+      </c>
+      <c r="C166" t="s">
+        <v>119</v>
+      </c>
+      <c r="D166" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>99</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
+        <v>120</v>
+      </c>
+      <c r="D167">
+        <v>16825296607</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>99</v>
+      </c>
+      <c r="B168" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" t="s">
+        <v>120</v>
+      </c>
+      <c r="D168">
+        <v>8845295981</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>100</v>
+      </c>
+      <c r="B169" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" t="s">
+        <v>121</v>
+      </c>
+      <c r="D169">
+        <v>27906697551</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>100</v>
+      </c>
+      <c r="B170" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" t="s">
+        <v>121</v>
+      </c>
+      <c r="D170">
+        <v>17906995875</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>101</v>
+      </c>
+      <c r="B171" t="s">
+        <v>15</v>
+      </c>
+      <c r="C171" t="s">
+        <v>122</v>
+      </c>
+      <c r="D171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>102</v>
+      </c>
+      <c r="B172" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" t="s">
+        <v>123</v>
+      </c>
+      <c r="D172">
+        <v>17912849910</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>103</v>
+      </c>
+      <c r="B173" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" t="s">
+        <v>124</v>
+      </c>
+      <c r="D173">
+        <v>14830199986</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>104</v>
+      </c>
+      <c r="B174" t="s">
+        <v>15</v>
+      </c>
+      <c r="C174" t="s">
+        <v>125</v>
+      </c>
+      <c r="D174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>105</v>
+      </c>
+      <c r="B175" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" t="s">
+        <v>126</v>
+      </c>
+      <c r="D175">
+        <v>29816097485</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>105</v>
+      </c>
+      <c r="B176" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" t="s">
+        <v>126</v>
+      </c>
+      <c r="D176">
+        <v>31835998196</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>106</v>
+      </c>
+      <c r="B177" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" t="s">
+        <v>127</v>
+      </c>
+      <c r="D177">
+        <v>11844698900</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>107</v>
+      </c>
+      <c r="B178" t="s">
+        <v>15</v>
+      </c>
+      <c r="C178" t="s">
+        <v>128</v>
+      </c>
+      <c r="D178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>108</v>
+      </c>
+      <c r="B179" t="s">
+        <v>17</v>
+      </c>
+      <c r="C179" t="s">
+        <v>129</v>
+      </c>
+      <c r="D179">
+        <v>30854397814</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>108</v>
+      </c>
+      <c r="B180" t="s">
+        <v>17</v>
+      </c>
+      <c r="C180" t="s">
+        <v>129</v>
+      </c>
+      <c r="D180">
+        <v>27924596770</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>109</v>
+      </c>
+      <c r="B181" t="s">
+        <v>17</v>
+      </c>
+      <c r="C181" t="s">
+        <v>130</v>
+      </c>
+      <c r="D181" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>110</v>
+      </c>
+      <c r="B182" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" t="s">
+        <v>131</v>
+      </c>
+      <c r="D182">
+        <v>312990806</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>111</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" t="s">
+        <v>132</v>
+      </c>
+      <c r="D183">
+        <v>14881299551</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>112</v>
+      </c>
+      <c r="B184" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" t="s">
+        <v>133</v>
+      </c>
+      <c r="D184">
+        <v>27921649164</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>112</v>
+      </c>
+      <c r="B185" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" t="s">
+        <v>133</v>
+      </c>
+      <c r="D185">
+        <v>21881848047</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>113</v>
+      </c>
+      <c r="B186" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186" t="s">
+        <v>134</v>
+      </c>
+      <c r="D186">
+        <v>10926998515</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>114</v>
+      </c>
+      <c r="B187" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" t="s">
+        <v>135</v>
+      </c>
+      <c r="D187">
+        <v>30878399222</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>115</v>
+      </c>
+      <c r="B188" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" t="s">
+        <v>136</v>
+      </c>
+      <c r="D188">
+        <v>312897849</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>116</v>
+      </c>
+      <c r="B189" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189" t="s">
+        <v>137</v>
+      </c>
+      <c r="D189">
+        <v>22833049414</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>116</v>
+      </c>
+      <c r="B190" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" t="s">
+        <v>137</v>
+      </c>
+      <c r="D190">
+        <v>6832649153</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>117</v>
+      </c>
+      <c r="B191" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" t="s">
+        <v>138</v>
+      </c>
+      <c r="D191">
+        <v>28870299984</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>118</v>
+      </c>
+      <c r="B192" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" t="s">
+        <v>139</v>
+      </c>
+      <c r="D192">
+        <v>313083829</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>119</v>
+      </c>
+      <c r="B193" t="s">
+        <v>13</v>
+      </c>
+      <c r="C193" t="s">
+        <v>140</v>
+      </c>
+      <c r="D193">
+        <v>14816097933</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>120</v>
+      </c>
+      <c r="B194" t="s">
+        <v>13</v>
+      </c>
+      <c r="C194" t="s">
+        <v>141</v>
+      </c>
+      <c r="D194">
+        <v>1873348077</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>120</v>
+      </c>
+      <c r="B195" t="s">
+        <v>13</v>
+      </c>
+      <c r="C195" t="s">
+        <v>141</v>
+      </c>
+      <c r="D195">
+        <v>24883249131</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>121</v>
+      </c>
+      <c r="B196" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196" t="s">
+        <v>142</v>
+      </c>
+      <c r="D196">
+        <v>11888398688</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>121</v>
+      </c>
+      <c r="B197" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197" t="s">
+        <v>142</v>
+      </c>
+      <c r="D197">
+        <v>26848497982</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>122</v>
+      </c>
+      <c r="B198" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" t="s">
+        <v>143</v>
+      </c>
+      <c r="D198">
+        <v>313122298</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>123</v>
+      </c>
+      <c r="B199" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" t="s">
+        <v>144</v>
+      </c>
+      <c r="D199">
+        <v>3886796934</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>124</v>
+      </c>
+      <c r="B200" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200" t="s">
+        <v>145</v>
+      </c>
+      <c r="D200">
+        <v>19810999767</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>125</v>
+      </c>
+      <c r="B201" t="s">
+        <v>4</v>
+      </c>
+      <c r="C201" t="s">
+        <v>146</v>
+      </c>
+      <c r="D201">
+        <v>21851197947</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>126</v>
+      </c>
+      <c r="B202" t="s">
+        <v>4</v>
+      </c>
+      <c r="C202" t="s">
+        <v>147</v>
+      </c>
+      <c r="D202">
+        <v>9916795154</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>127</v>
+      </c>
+      <c r="B203" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203" t="s">
+        <v>148</v>
+      </c>
+      <c r="D203">
+        <v>19901599427</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>128</v>
+      </c>
+      <c r="B204" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204" t="s">
+        <v>149</v>
+      </c>
+      <c r="D204">
+        <v>11815699248</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>129</v>
+      </c>
+      <c r="B205" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205" t="s">
+        <v>150</v>
+      </c>
+      <c r="D205">
+        <v>8810597691</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>130</v>
+      </c>
+      <c r="B206" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206" t="s">
+        <v>151</v>
+      </c>
+      <c r="D206">
+        <v>10830698979</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>131</v>
+      </c>
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" t="s">
+        <v>152</v>
+      </c>
+      <c r="D207">
+        <v>17871699119</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>132</v>
+      </c>
+      <c r="B208" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208" t="s">
+        <v>153</v>
+      </c>
+      <c r="D208">
+        <v>17871699119</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>133</v>
+      </c>
+      <c r="B209" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" t="s">
+        <v>154</v>
+      </c>
+      <c r="D209">
+        <v>17871699119</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>134</v>
+      </c>
+      <c r="B210" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210" t="s">
+        <v>155</v>
+      </c>
+      <c r="D210">
+        <v>17871699119</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>135</v>
+      </c>
+      <c r="B211" t="s">
+        <v>3</v>
+      </c>
+      <c r="C211" t="s">
+        <v>156</v>
+      </c>
+      <c r="D211">
+        <v>28897398674</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>135</v>
+      </c>
+      <c r="B212" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212" t="s">
+        <v>156</v>
+      </c>
+      <c r="D212">
+        <v>6917598523</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>136</v>
+      </c>
+      <c r="B213" t="s">
+        <v>4</v>
+      </c>
+      <c r="C213" t="s">
+        <v>157</v>
+      </c>
+      <c r="D213">
+        <v>312869179</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>137</v>
+      </c>
+      <c r="B214" t="s">
+        <v>158</v>
+      </c>
+      <c r="C214" t="s">
+        <v>159</v>
+      </c>
+      <c r="D214">
+        <v>13824198580</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>137</v>
+      </c>
+      <c r="B215" t="s">
+        <v>158</v>
+      </c>
+      <c r="C215" t="s">
+        <v>159</v>
+      </c>
+      <c r="D215">
+        <v>10867598672</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>138</v>
+      </c>
+      <c r="B216" t="s">
+        <v>158</v>
+      </c>
+      <c r="C216" t="s">
+        <v>160</v>
+      </c>
+      <c r="D216">
+        <v>13824198580</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>138</v>
+      </c>
+      <c r="B217" t="s">
+        <v>158</v>
+      </c>
+      <c r="C217" t="s">
+        <v>160</v>
+      </c>
+      <c r="D217">
+        <v>16834198669</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>139</v>
+      </c>
+      <c r="B218" t="s">
+        <v>9</v>
+      </c>
+      <c r="C218" t="s">
+        <v>161</v>
+      </c>
+      <c r="D218" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>140</v>
+      </c>
+      <c r="B219" t="s">
+        <v>9</v>
+      </c>
+      <c r="C219" t="s">
+        <v>162</v>
+      </c>
+      <c r="D219" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>200</v>
+      </c>
+      <c r="B220" t="s">
+        <v>18</v>
+      </c>
+      <c r="C220" t="s">
+        <v>163</v>
+      </c>
+      <c r="D220">
+        <v>314173546</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>201</v>
+      </c>
+      <c r="B221" t="s">
+        <v>18</v>
+      </c>
+      <c r="C221" t="s">
+        <v>164</v>
+      </c>
+      <c r="D221">
+        <v>310463043</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>202</v>
+      </c>
+      <c r="B222" t="s">
+        <v>18</v>
+      </c>
+      <c r="C222" t="s">
+        <v>165</v>
+      </c>
+      <c r="D222">
+        <v>3888797512</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>202</v>
+      </c>
+      <c r="B223" t="s">
+        <v>18</v>
+      </c>
+      <c r="C223" t="s">
+        <v>165</v>
+      </c>
+      <c r="D223">
+        <v>28819097269</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>203</v>
+      </c>
+      <c r="B224" t="s">
+        <v>18</v>
+      </c>
+      <c r="C224" t="s">
+        <v>166</v>
+      </c>
+      <c r="D224">
+        <v>2928498827</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>203</v>
+      </c>
+      <c r="B225" t="s">
+        <v>18</v>
+      </c>
+      <c r="C225" t="s">
+        <v>166</v>
+      </c>
+      <c r="D225">
+        <v>5898499105</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>204</v>
+      </c>
+      <c r="B226" t="s">
+        <v>18</v>
+      </c>
+      <c r="C226" t="s">
+        <v>167</v>
+      </c>
+      <c r="D226">
+        <v>2928498827</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>204</v>
+      </c>
+      <c r="B227" t="s">
+        <v>18</v>
+      </c>
+      <c r="C227" t="s">
+        <v>167</v>
+      </c>
+      <c r="D227">
+        <v>5898499105</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>205</v>
+      </c>
+      <c r="B228" t="s">
+        <v>18</v>
+      </c>
+      <c r="C228" t="s">
+        <v>168</v>
+      </c>
+      <c r="D228">
+        <v>25825799438</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>205</v>
+      </c>
+      <c r="B229" t="s">
+        <v>18</v>
+      </c>
+      <c r="C229" t="s">
+        <v>168</v>
+      </c>
+      <c r="D229">
+        <v>22906098788</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>206</v>
+      </c>
+      <c r="B230" t="s">
+        <v>18</v>
+      </c>
+      <c r="C230" t="s">
+        <v>169</v>
+      </c>
+      <c r="D230">
+        <v>5927196176</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>206</v>
+      </c>
+      <c r="B231" t="s">
+        <v>18</v>
+      </c>
+      <c r="C231" t="s">
+        <v>169</v>
+      </c>
+      <c r="D231">
+        <v>15877598486</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>207</v>
+      </c>
+      <c r="B232" t="s">
+        <v>18</v>
+      </c>
+      <c r="C232" t="s">
+        <v>170</v>
+      </c>
+      <c r="D232">
+        <v>23838596355</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>207</v>
+      </c>
+      <c r="B233" t="s">
+        <v>18</v>
+      </c>
+      <c r="C233" t="s">
+        <v>170</v>
+      </c>
+      <c r="D233">
+        <v>15898298865</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>208</v>
+      </c>
+      <c r="B234" t="s">
+        <v>18</v>
+      </c>
+      <c r="C234" t="s">
+        <v>171</v>
+      </c>
+      <c r="D234">
+        <v>2892098886</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>300</v>
+      </c>
+      <c r="B235" t="s">
+        <v>14</v>
+      </c>
+      <c r="C235" t="s">
+        <v>172</v>
+      </c>
+      <c r="D235">
+        <v>311703129</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>301</v>
+      </c>
+      <c r="B236" t="s">
+        <v>3</v>
+      </c>
+      <c r="C236" t="s">
+        <v>173</v>
+      </c>
+      <c r="D236">
+        <v>311703129</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>302</v>
+      </c>
+      <c r="B237" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" t="s">
+        <v>174</v>
+      </c>
+      <c r="D237">
+        <v>311703129</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>303</v>
+      </c>
+      <c r="B238" t="s">
+        <v>14</v>
+      </c>
+      <c r="C238" t="s">
+        <v>175</v>
+      </c>
+      <c r="D238">
+        <v>7820397791</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>304</v>
+      </c>
+      <c r="B239" t="s">
+        <v>3</v>
+      </c>
+      <c r="C239" t="s">
+        <v>176</v>
+      </c>
+      <c r="D239">
+        <v>7820397791</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>305</v>
+      </c>
+      <c r="B240" t="s">
+        <v>3</v>
+      </c>
+      <c r="C240" t="s">
+        <v>177</v>
+      </c>
+      <c r="D240">
+        <v>7820397791</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>306</v>
+      </c>
+      <c r="B241" t="s">
+        <v>14</v>
+      </c>
+      <c r="C241" t="s">
+        <v>178</v>
+      </c>
+      <c r="D241">
+        <v>2871198899</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>307</v>
+      </c>
+      <c r="B242" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" t="s">
+        <v>179</v>
+      </c>
+      <c r="D242">
+        <v>2871198899</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>308</v>
+      </c>
+      <c r="B243" t="s">
+        <v>3</v>
+      </c>
+      <c r="C243" t="s">
+        <v>180</v>
+      </c>
+      <c r="D243">
+        <v>2871198899</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>309</v>
+      </c>
+      <c r="B244" t="s">
+        <v>4</v>
+      </c>
+      <c r="C244" t="s">
+        <v>181</v>
+      </c>
+      <c r="D244">
+        <v>2871198899</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>310</v>
+      </c>
+      <c r="B245" t="s">
+        <v>14</v>
+      </c>
+      <c r="C245" t="s">
+        <v>182</v>
+      </c>
+      <c r="D245">
+        <v>314251334</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>311</v>
+      </c>
+      <c r="B246" t="s">
+        <v>3</v>
+      </c>
+      <c r="C246" t="s">
+        <v>183</v>
+      </c>
+      <c r="D246">
+        <v>314251334</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>312</v>
+      </c>
+      <c r="B247" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" t="s">
+        <v>184</v>
+      </c>
+      <c r="D247">
+        <v>314251334</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>313</v>
+      </c>
+      <c r="B248" t="s">
+        <v>14</v>
+      </c>
+      <c r="C248" t="s">
+        <v>185</v>
+      </c>
+      <c r="D248">
+        <v>12827299683</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>314</v>
+      </c>
+      <c r="B249" t="s">
+        <v>3</v>
+      </c>
+      <c r="C249" t="s">
+        <v>186</v>
+      </c>
+      <c r="D249">
+        <v>11925097502</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>315</v>
+      </c>
+      <c r="B250" t="s">
+        <v>3</v>
+      </c>
+      <c r="C250" t="s">
+        <v>187</v>
+      </c>
+      <c r="D250">
+        <v>11866099563</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>316</v>
+      </c>
+      <c r="B251" t="s">
+        <v>7</v>
+      </c>
+      <c r="C251" t="s">
+        <v>188</v>
+      </c>
+      <c r="D251">
+        <v>11870999552</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>317</v>
+      </c>
+      <c r="B252" t="s">
+        <v>14</v>
+      </c>
+      <c r="C252" t="s">
+        <v>189</v>
+      </c>
+      <c r="D252">
+        <v>8885498788</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>318</v>
+      </c>
+      <c r="B253" t="s">
+        <v>5</v>
+      </c>
+      <c r="C253" t="s">
+        <v>190</v>
+      </c>
+      <c r="D253">
+        <v>8885498788</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>319</v>
+      </c>
+      <c r="B254" t="s">
+        <v>66</v>
+      </c>
+      <c r="C254" t="s">
+        <v>191</v>
+      </c>
+      <c r="D254">
+        <v>8885498788</v>
       </c>
     </row>
   </sheetData>
